--- a/Schedule work.xlsx
+++ b/Schedule work.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28279CC4-2CED-435D-B16F-AFEF901EDF2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71AC20-99B3-4D92-B169-E75467F42C7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,22 +118,22 @@
 * Nhập dữ liệu demo .</t>
   </si>
   <si>
+    <t>Nội dung : 
+* Viết release note ( cải thiện chức năng qua các phiên bản ).
+* Viết báo cáo và hướng dẫn sử dụng ( FAQ ) .</t>
+  </si>
+  <si>
+    <t>Nội dung : 
+* Tiến hành code website tin tức với Framework Laravel .</t>
+  </si>
+  <si>
+    <t>Nội dung : 
+* Vẽ demo bố cục giao diện bằng phần mềm vẽ Mockup ( thiết kế vị trí các chức năng ) .</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nội dung : 
-* Tiến hành code website 
-* </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nội dung : 
-* Tổ chức file Test Case ( excel ) .
+* Tổ chức file TestCase ( excel ).
 * Kiểm tra fix lỗi đồ án website </t>
-  </si>
-  <si>
-    <t>Nội dung : 
-* Vẽ demo bố cục giao diện bằng phần mềm vẽ .</t>
-  </si>
-  <si>
-    <t>Nội dung : 
-* Viết release note ( cải thiện chức năng qua các phiên bản ).</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
